--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna1-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna1-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Epha3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H2">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I2">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J2">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.05620966666666666</v>
+        <v>0.114581</v>
       </c>
       <c r="N2">
-        <v>0.168629</v>
+        <v>0.343743</v>
       </c>
       <c r="O2">
-        <v>0.003368847317172573</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P2">
-        <v>0.003368847317172572</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q2">
-        <v>1.030434747451778</v>
+        <v>2.433504582877334</v>
       </c>
       <c r="R2">
-        <v>9.273912727066</v>
+        <v>21.901541245896</v>
       </c>
       <c r="S2">
-        <v>0.002975323886090078</v>
+        <v>0.006904398367849944</v>
       </c>
       <c r="T2">
-        <v>0.002975323886090077</v>
+        <v>0.006904398367849943</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H3">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I3">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J3">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>44.563349</v>
       </c>
       <c r="O3">
-        <v>0.8902805491515402</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P3">
-        <v>0.8902805491515401</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q3">
-        <v>272.3115435211051</v>
+        <v>315.4831197140365</v>
       </c>
       <c r="R3">
-        <v>2450.803891689946</v>
+        <v>2839.348077426328</v>
       </c>
       <c r="S3">
-        <v>0.7862846647010205</v>
+        <v>0.8950963775306768</v>
       </c>
       <c r="T3">
-        <v>0.7862846647010203</v>
+        <v>0.8950963775306767</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H4">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I4">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J4">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.752099666666667</v>
+        <v>0.037105</v>
       </c>
       <c r="N4">
-        <v>5.256299</v>
+        <v>0.111315</v>
       </c>
       <c r="O4">
-        <v>0.1050096293307016</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P4">
-        <v>0.1050096293307016</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q4">
-        <v>32.11946422380512</v>
+        <v>0.7880467751866667</v>
       </c>
       <c r="R4">
-        <v>289.075178014246</v>
+        <v>7.09242097668</v>
       </c>
       <c r="S4">
-        <v>0.09274319344318825</v>
+        <v>0.002235865470183295</v>
       </c>
       <c r="T4">
-        <v>0.09274319344318822</v>
+        <v>0.002235865470183295</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.33198466666667</v>
+        <v>1.394651</v>
       </c>
       <c r="H5">
-        <v>54.995954</v>
+        <v>4.183953000000001</v>
       </c>
       <c r="I5">
-        <v>0.8831875137004506</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J5">
-        <v>0.8831875137004505</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02237433333333333</v>
+        <v>0.114581</v>
       </c>
       <c r="N5">
-        <v>0.067123</v>
+        <v>0.343743</v>
       </c>
       <c r="O5">
-        <v>0.001340974200585751</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P5">
-        <v>0.001340974200585751</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q5">
-        <v>0.4101659355935556</v>
+        <v>0.159800506231</v>
       </c>
       <c r="R5">
-        <v>3.691493420342</v>
+        <v>1.438204556079</v>
       </c>
       <c r="S5">
-        <v>0.001184331670151779</v>
+        <v>0.0004533898814763511</v>
       </c>
       <c r="T5">
-        <v>0.001184331670151779</v>
+        <v>0.0004533898814763511</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +791,40 @@
         <v>4.183953000000001</v>
       </c>
       <c r="I6">
-        <v>0.06719067092662021</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J6">
-        <v>0.06719067092662019</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05620966666666666</v>
+        <v>14.85444966666667</v>
       </c>
       <c r="N6">
-        <v>0.168629</v>
+        <v>44.563349</v>
       </c>
       <c r="O6">
-        <v>0.003368847317172573</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P6">
-        <v>0.003368847317172572</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q6">
-        <v>0.07839286782633335</v>
+        <v>20.71677308206634</v>
       </c>
       <c r="R6">
-        <v>0.7055358104370001</v>
+        <v>186.4509577385971</v>
       </c>
       <c r="S6">
-        <v>0.0002263551114901697</v>
+        <v>0.05877813227120049</v>
       </c>
       <c r="T6">
-        <v>0.0002263551114901696</v>
+        <v>0.05877813227120049</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +853,45 @@
         <v>4.183953000000001</v>
       </c>
       <c r="I7">
-        <v>0.06719067092662021</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J7">
-        <v>0.06719067092662019</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>14.85444966666667</v>
+        <v>0.037105</v>
       </c>
       <c r="N7">
-        <v>44.563349</v>
+        <v>0.111315</v>
       </c>
       <c r="O7">
-        <v>0.8902805491515402</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P7">
-        <v>0.8902805491515401</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q7">
-        <v>20.71677308206634</v>
+        <v>0.05174852535500001</v>
       </c>
       <c r="R7">
-        <v>186.4509577385971</v>
+        <v>0.4657367281950001</v>
       </c>
       <c r="S7">
-        <v>0.05981854741041186</v>
+        <v>0.0001468221742887565</v>
       </c>
       <c r="T7">
-        <v>0.05981854741041184</v>
+        <v>0.0001468221742887565</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.394651</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H8">
-        <v>4.183953000000001</v>
+        <v>1.873951</v>
       </c>
       <c r="I8">
-        <v>0.06719067092662021</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J8">
-        <v>0.06719067092662019</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,33 +927,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.752099666666667</v>
+        <v>0.114581</v>
       </c>
       <c r="N8">
-        <v>5.256299</v>
+        <v>0.343743</v>
       </c>
       <c r="O8">
-        <v>0.1050096293307016</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P8">
-        <v>0.1050096293307016</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q8">
-        <v>2.443567552216334</v>
+        <v>0.07157305984366666</v>
       </c>
       <c r="R8">
-        <v>21.992107969947</v>
+        <v>0.6441575385930001</v>
       </c>
       <c r="S8">
-        <v>0.007055667448485536</v>
+        <v>0.0002030688255299448</v>
       </c>
       <c r="T8">
-        <v>0.007055667448485533</v>
+        <v>0.0002030688255299448</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.394651</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H9">
-        <v>4.183953000000001</v>
+        <v>1.873951</v>
       </c>
       <c r="I9">
-        <v>0.06719067092662021</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J9">
-        <v>0.06719067092662019</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02237433333333333</v>
+        <v>14.85444966666667</v>
       </c>
       <c r="N9">
-        <v>0.067123</v>
+        <v>44.563349</v>
       </c>
       <c r="O9">
-        <v>0.001340974200585751</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P9">
-        <v>0.001340974200585751</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q9">
-        <v>0.03120438635766667</v>
+        <v>9.278836935766556</v>
       </c>
       <c r="R9">
-        <v>0.280839477219</v>
+        <v>83.509532421899</v>
       </c>
       <c r="S9">
-        <v>9.010095623264478E-05</v>
+        <v>0.0263261417486641</v>
       </c>
       <c r="T9">
-        <v>9.010095623264476E-05</v>
+        <v>0.0263261417486641</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9925623333333333</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H10">
-        <v>2.977687</v>
+        <v>1.873951</v>
       </c>
       <c r="I10">
-        <v>0.0478190809838148</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J10">
-        <v>0.04781908098381479</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,33 +1051,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.05620966666666666</v>
+        <v>0.037105</v>
       </c>
       <c r="N10">
-        <v>0.168629</v>
+        <v>0.111315</v>
       </c>
       <c r="O10">
-        <v>0.003368847317172573</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P10">
-        <v>0.003368847317172572</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q10">
-        <v>0.05579159790255556</v>
+        <v>0.02317765061833333</v>
       </c>
       <c r="R10">
-        <v>0.502124381123</v>
+        <v>0.208598855565</v>
       </c>
       <c r="S10">
-        <v>0.0001610951826819825</v>
+        <v>6.576019384792071E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001610951826819824</v>
+        <v>6.576019384792071E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.9925623333333333</v>
+        <v>0.229944</v>
       </c>
       <c r="H11">
-        <v>2.977687</v>
+        <v>0.689832</v>
       </c>
       <c r="I11">
-        <v>0.0478190809838148</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="J11">
-        <v>0.04781908098381479</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>14.85444966666667</v>
+        <v>0.114581</v>
       </c>
       <c r="N11">
-        <v>44.563349</v>
+        <v>0.343743</v>
       </c>
       <c r="O11">
-        <v>0.8902805491515402</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P11">
-        <v>0.8902805491515401</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q11">
-        <v>14.74396722152922</v>
+        <v>0.026347213464</v>
       </c>
       <c r="R11">
-        <v>132.695704993763</v>
+        <v>0.237124921176</v>
       </c>
       <c r="S11">
-        <v>0.04257239767819261</v>
+        <v>7.475295461459394E-05</v>
       </c>
       <c r="T11">
-        <v>0.0425723976781926</v>
+        <v>7.475295461459394E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.9925623333333333</v>
+        <v>0.229944</v>
       </c>
       <c r="H12">
-        <v>2.977687</v>
+        <v>0.689832</v>
       </c>
       <c r="I12">
-        <v>0.0478190809838148</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="J12">
-        <v>0.04781908098381479</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.752099666666667</v>
+        <v>14.85444966666667</v>
       </c>
       <c r="N12">
-        <v>5.256299</v>
+        <v>44.563349</v>
       </c>
       <c r="O12">
-        <v>0.1050096293307016</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P12">
-        <v>0.1050096293307016</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q12">
-        <v>1.739068133379222</v>
+        <v>3.415691574152</v>
       </c>
       <c r="R12">
-        <v>15.651613200413</v>
+        <v>30.741224167368</v>
       </c>
       <c r="S12">
-        <v>0.005021463969045193</v>
+        <v>0.00969108317921037</v>
       </c>
       <c r="T12">
-        <v>0.005021463969045192</v>
+        <v>0.00969108317921037</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,25 +1210,25 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.9925623333333333</v>
+        <v>0.229944</v>
       </c>
       <c r="H13">
-        <v>2.977687</v>
+        <v>0.689832</v>
       </c>
       <c r="I13">
-        <v>0.0478190809838148</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="J13">
-        <v>0.04781908098381479</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1240,276 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02237433333333333</v>
+        <v>0.037105</v>
       </c>
       <c r="N13">
-        <v>0.067123</v>
+        <v>0.111315</v>
       </c>
       <c r="O13">
-        <v>0.001340974200585751</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P13">
-        <v>0.001340974200585751</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q13">
-        <v>0.02220792050011111</v>
+        <v>0.008532072119999999</v>
       </c>
       <c r="R13">
-        <v>0.199871284501</v>
+        <v>0.07678864907999999</v>
       </c>
       <c r="S13">
-        <v>6.412415389501633E-05</v>
+        <v>2.420740245742757E-05</v>
       </c>
       <c r="T13">
-        <v>6.412415389501633E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.03741866666666666</v>
-      </c>
-      <c r="H14">
-        <v>0.112256</v>
-      </c>
-      <c r="I14">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="J14">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.05620966666666666</v>
-      </c>
-      <c r="N14">
-        <v>0.168629</v>
-      </c>
-      <c r="O14">
-        <v>0.003368847317172573</v>
-      </c>
-      <c r="P14">
-        <v>0.003368847317172572</v>
-      </c>
-      <c r="Q14">
-        <v>0.002103290780444444</v>
-      </c>
-      <c r="R14">
-        <v>0.018929617024</v>
-      </c>
-      <c r="S14">
-        <v>6.073136910343036E-06</v>
-      </c>
-      <c r="T14">
-        <v>6.073136910343035E-06</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.03741866666666666</v>
-      </c>
-      <c r="H15">
-        <v>0.112256</v>
-      </c>
-      <c r="I15">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="J15">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>14.85444966666667</v>
-      </c>
-      <c r="N15">
-        <v>44.563349</v>
-      </c>
-      <c r="O15">
-        <v>0.8902805491515402</v>
-      </c>
-      <c r="P15">
-        <v>0.8902805491515401</v>
-      </c>
-      <c r="Q15">
-        <v>0.5558337005937778</v>
-      </c>
-      <c r="R15">
-        <v>5.002503305344</v>
-      </c>
-      <c r="S15">
-        <v>0.001604939361915201</v>
-      </c>
-      <c r="T15">
-        <v>0.001604939361915201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.03741866666666666</v>
-      </c>
-      <c r="H16">
-        <v>0.112256</v>
-      </c>
-      <c r="I16">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="J16">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>1.752099666666667</v>
-      </c>
-      <c r="N16">
-        <v>5.256299</v>
-      </c>
-      <c r="O16">
-        <v>0.1050096293307016</v>
-      </c>
-      <c r="P16">
-        <v>0.1050096293307016</v>
-      </c>
-      <c r="Q16">
-        <v>0.06556123339377777</v>
-      </c>
-      <c r="R16">
-        <v>0.590051100544</v>
-      </c>
-      <c r="S16">
-        <v>0.0001893044699826198</v>
-      </c>
-      <c r="T16">
-        <v>0.0001893044699826197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.03741866666666666</v>
-      </c>
-      <c r="H17">
-        <v>0.112256</v>
-      </c>
-      <c r="I17">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="J17">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.02237433333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.067123</v>
-      </c>
-      <c r="O17">
-        <v>0.001340974200585751</v>
-      </c>
-      <c r="P17">
-        <v>0.001340974200585751</v>
-      </c>
-      <c r="Q17">
-        <v>0.0008372177208888887</v>
-      </c>
-      <c r="R17">
-        <v>0.007534959488</v>
-      </c>
-      <c r="S17">
-        <v>2.417420306311225E-06</v>
-      </c>
-      <c r="T17">
-        <v>2.417420306311225E-06</v>
+        <v>2.420740245742757E-05</v>
       </c>
     </row>
   </sheetData>
